--- a/selenium/botテンプレート.xlsx
+++ b/selenium/botテンプレート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sako/supreme/selenium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sako/supreme/script/selenium/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="22100" windowHeight="9340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017/04/01/10:59:45</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2017/04/01/11:00:45</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -369,6 +365,39 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時：分の形式で入力して下さい</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>クダサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:57</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時刻は 時：分の形式で入力して下さい　</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -380,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +449,14 @@
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -467,7 +504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,6 +530,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -813,7 +853,9 @@
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="21" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.33203125" customWidth="1"/>
+    <col min="21" max="21" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -821,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -851,10 +893,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>8</v>
@@ -869,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>12</v>
@@ -886,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -907,16 +949,16 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="K2" s="4">
         <v>222222222222222</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" s="5">
         <v>2018</v>
@@ -926,25 +968,30 @@
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T3" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -956,7 +1003,7 @@
     </row>
     <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -968,7 +1015,7 @@
     </row>
     <row r="7" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -980,7 +1027,7 @@
     </row>
     <row r="8" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -992,7 +1039,7 @@
     </row>
     <row r="9" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1001,6 +1048,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/selenium/botテンプレート.xlsx
+++ b/selenium/botテンプレート.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -121,29 +119,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>監視間隔</t>
-    <rPh sb="0" eb="2">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始時間</t>
     <rPh sb="0" eb="2">
       <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了時間</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
@@ -185,10 +163,6 @@
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2017/04/01/11:00:45</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -836,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -853,23 +827,21 @@
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.33203125" customWidth="1"/>
-    <col min="21" max="21" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -893,10 +865,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>8</v>
@@ -911,87 +883,77 @@
         <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K2" s="4">
         <v>222222222222222</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M2" s="5">
         <v>2018</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="S2" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T3" s="9" t="s">
-        <v>41</v>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1001,9 +963,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1013,9 +975,9 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1025,9 +987,9 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1037,9 +999,9 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1049,39 +1011,13 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/selenium/botテンプレート.xlsx
+++ b/selenium/botテンプレート.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -373,6 +373,14 @@
     <rPh sb="2" eb="4">
       <t>ジコク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chrome</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -810,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -826,11 +834,11 @@
     <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="26.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,22 +882,25 @@
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -932,26 +943,29 @@
       <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S3" s="9" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -963,7 +977,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -975,7 +989,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -987,7 +1001,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
@@ -999,7 +1013,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1011,7 +1025,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>

--- a/selenium/botテンプレート.xlsx
+++ b/selenium/botテンプレート.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -166,21 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TeQFZnDLIi0.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Light Blue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>姓</t>
     <rPh sb="0" eb="1">
       <t>セイ</t>
@@ -382,6 +367,9 @@
   <si>
     <t>chrome</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R02apuounhi</t>
   </si>
 </sst>
 </file>
@@ -818,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -834,22 +822,21 @@
     <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="26.33203125" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -873,16 +860,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>9</v>
@@ -894,21 +881,18 @@
         <v>11</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -926,16 +910,16 @@
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K2" s="4">
         <v>222222222222222</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M2" s="5">
         <v>2018</v>
@@ -944,30 +928,27 @@
         <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>39</v>
+      <c r="S2" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T3" s="9" t="s">
-        <v>38</v>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -977,9 +958,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -989,9 +970,9 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1001,9 +982,9 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1013,9 +994,9 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1025,9 +1006,9 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/selenium/botテンプレート.xlsx
+++ b/selenium/botテンプレート.xlsx
@@ -369,7 +369,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R02apuounhi</t>
+    <t>72iisj1nh10</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -809,7 +810,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
